--- a/5sem/55/tables/data_f.xlsx
+++ b/5sem/55/tables/data_f.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1340" windowWidth="24560" windowHeight="11000" tabRatio="500"/>
+    <workbookView xWindow="9780" yWindow="2980" windowWidth="24560" windowHeight="11000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -374,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,7 +426,7 @@
         <f>D2/C2</f>
         <v>5.3252117283649716E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>10^3*E2^2</f>
         <v>2.8357879951915845</v>
       </c>
@@ -456,23 +457,23 @@
         <v>70.169430300000002</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">D3/C3</f>
+        <f t="shared" ref="E3:E8" si="0">D3/C3</f>
         <v>5.2834457799070499E-2</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F18" si="1">10^3*E3^2</f>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F9" si="1">10^3*E3^2</f>
         <v>2.7914799309217613</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="2">10^4/C3</f>
+        <f t="shared" ref="G3:G8" si="2">10^4/C3</f>
         <v>7.5295549034934233</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H18" si="3">C3/(1+511/(2*C3))</f>
+        <f t="shared" ref="H3:H8" si="3">C3/(1+511/(2*C3))</f>
         <v>1113.8224472659942</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" si="4">C3/(1+2*C3/511)</f>
+        <f t="shared" ref="I3:I8" si="4">C3/(1+2*C3/511)</f>
         <v>214.27730473400578</v>
       </c>
     </row>
@@ -493,9 +494,8 @@
         <f t="shared" si="0"/>
         <v>7.8578595818022831E-2</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>6.1745957207321949</v>
+      <c r="F4" s="3">
+        <v>5.6</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
@@ -527,7 +527,7 @@
         <f t="shared" si="0"/>
         <v>5.7530367963158392E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>3.3097432379764018</v>
       </c>
@@ -561,7 +561,7 @@
         <f t="shared" si="0"/>
         <v>6.8554590353949563E-2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f t="shared" si="1"/>
         <v>4.6997318585978345</v>
       </c>
@@ -579,78 +579,107 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1">
+        <v>135.57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C7" s="1">
+        <v>69.242940869999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.0463999499999996</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.13064725207128539</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>17.068704473777984</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>144.41905375992735</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>14.764246599114429</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>54.478694270885562</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>199.01</v>
+      </c>
+      <c r="B8" s="1">
+        <v>12.26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>129.9734819</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11.73638766</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>9.0298324615399883E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>76.938771307934005</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>43.824301256583084</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>86.149180643416912</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A9" s="1">
+        <v>421.72</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30.43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>343.1717605</v>
+      </c>
+      <c r="D9" s="1">
+        <v>29.130365130000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="5">D9/C9</f>
+        <v>8.4885670917552086E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6.55</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9" si="6">10^4/C9</f>
+        <v>29.139926855957018</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9" si="7">C9/(1+511/(2*C9))</f>
+        <v>196.71356655659284</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="8">C9/(1+2*C9/511)</f>
+        <v>146.45819394340717</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/5sem/55/tables/data_f.xlsx
+++ b/5sem/55/tables/data_f.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="2980" windowWidth="24560" windowHeight="11000" tabRatio="500"/>
+    <workbookView xWindow="5520" yWindow="2800" windowWidth="24560" windowHeight="11000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -375,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1286.0999999999999</v>
       </c>
@@ -442,8 +442,16 @@
         <f>C2/(1+2*C2/511)</f>
         <v>209.72575558426024</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>G2*D2/C2</f>
+        <v>0.45489942920463794</v>
+      </c>
+      <c r="K2">
+        <f>2*F2*(1/A2 + 2/B2)</f>
+        <v>0.17859835459255305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1450.59</v>
       </c>
@@ -461,7 +469,7 @@
         <v>5.2834457799070499E-2</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F9" si="1">10^3*E3^2</f>
+        <f t="shared" ref="F3:F7" si="1">10^3*E3^2</f>
         <v>2.7914799309217613</v>
       </c>
       <c r="G3">
@@ -476,8 +484,16 @@
         <f t="shared" ref="I3:I8" si="4">C3/(1+2*C3/511)</f>
         <v>214.27730473400578</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="5">G3*D3/C3</f>
+        <v>0.39781995079440763</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="6">2*F3*(1/A3 + 2/B3)</f>
+        <v>0.15618053450891861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>597.48</v>
       </c>
@@ -509,8 +525,16 @@
         <f t="shared" si="4"/>
         <v>170.38055454780883</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>1.5364630392805538</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>0.55233281991765759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1395.23</v>
       </c>
@@ -543,8 +567,16 @@
         <f t="shared" si="4"/>
         <v>212.85001032487747</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0.45118172681398011</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>0.17750925194728362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>754.22</v>
       </c>
@@ -577,8 +609,16 @@
         <f t="shared" si="4"/>
         <v>184.30881868831324</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>1.0363959793919431</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>0.40931551338212335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>135.57</v>
       </c>
@@ -611,8 +651,16 @@
         <f t="shared" si="4"/>
         <v>54.478694270885562</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f>G7*D7/C7/2</f>
+        <v>9.4339762602348731</v>
+      </c>
+      <c r="K7">
+        <f>2*F7*(1/A7 + 2/B7)/6</f>
+        <v>1.2461091612271253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>199.01</v>
       </c>
@@ -644,8 +692,16 @@
         <f t="shared" si="4"/>
         <v>86.149180643416912</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>6.947442147073839</v>
+      </c>
+      <c r="K8">
+        <f>2*F8*(1/A8 + 2/B8)/4</f>
+        <v>0.76511439619591692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>421.72</v>
       </c>
@@ -659,23 +715,31 @@
         <v>29.130365130000001</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9" si="5">D9/C9</f>
+        <f t="shared" ref="E9" si="7">D9/C9</f>
         <v>8.4885670917552086E-2</v>
       </c>
       <c r="F9" s="3">
         <v>6.55</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9" si="6">10^4/C9</f>
+        <f t="shared" ref="G9" si="8">10^4/C9</f>
         <v>29.139926855957018</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9" si="7">C9/(1+511/(2*C9))</f>
+        <f t="shared" ref="H9" si="9">C9/(1+511/(2*C9))</f>
         <v>196.71356655659284</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9" si="8">C9/(1+2*C9/511)</f>
+        <f t="shared" ref="I9" si="10">C9/(1+2*C9/511)</f>
         <v>146.45819394340717</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>2.4735622416563059</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0.89205570639481535</v>
       </c>
     </row>
   </sheetData>

--- a/5sem/55/tables/data_f.xlsx
+++ b/5sem/55/tables/data_f.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,7 +730,7 @@
         <v>196.71356655659284</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9" si="10">C9/(1+2*C9/511)</f>
+        <f t="shared" ref="I9:I10" si="10">C9/(1+2*C9/511)</f>
         <v>146.45819394340717</v>
       </c>
       <c r="J9">
@@ -740,6 +740,13 @@
       <c r="K9">
         <f t="shared" si="6"/>
         <v>0.89205570639481535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="I10">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
